--- a/simple_template.xlsx
+++ b/simple_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">Test Heading</t>
   </si>
@@ -28,13 +28,43 @@
     <t xml:space="preserve">This is a name</t>
   </si>
   <si>
-    <t xml:space="preserve">{{NAME}}</t>
+    <t xml:space="preserve">{{FIRST_NAME}} {{LAST_NAME}}</t>
   </si>
   <si>
     <t xml:space="preserve">Website</t>
   </si>
   <si>
-    <t xml:space="preserve">{{WEBSITE}}</t>
+    <t xml:space="preserve">Some Text: {{WEBSITE_1}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is an Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a replacement
+Constructed from 
+multiple fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{STREET_NO}}{{STREET}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a replacement
+Constructed from 
+multiple fields
+With other characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{LAST_NAME}}, {{FIRST_NAME}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This field has a 
+Lot of formatting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{WEBSITE_1}} and {{WEBSITE_2}}</t>
   </si>
 </sst>
 </file>
@@ -44,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -73,8 +103,16 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,8 +125,14 @@
         <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF395511"/>
+        <bgColor rgb="FF333333"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -103,6 +147,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -129,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -143,6 +194,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -208,7 +267,7 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF395511"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
@@ -218,18 +277,64 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>433080</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>87120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>260640</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>58320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="433080" y="1224720"/>
+          <a:ext cx="4506120" cy="1109160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:D5"/>
+  <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.48"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -237,13 +342,12 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -251,13 +355,50 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -266,5 +407,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>